--- a/test_請求管理/已完成/test_請求管理_契約者別請求一覧.xlsx
+++ b/test_請求管理/已完成/test_請求管理_契約者別請求一覧.xlsx
@@ -5318,8 +5318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5936,7 +5936,7 @@
       <c r="BW65" s="49"/>
     </row>
     <row r="66" spans="1:75" s="45" customFormat="1" ht="14.25">
-      <c r="A66" s="52" t="s">
+      <c r="A66" s="168" t="s">
         <v>159</v>
       </c>
       <c r="B66" s="51" t="s">

--- a/test_請求管理/已完成/test_請求管理_契約者別請求一覧.xlsx
+++ b/test_請求管理/已完成/test_請求管理_契約者別請求一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="757"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="757" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4029" uniqueCount="924">
   <si>
     <t>URL:</t>
   </si>
@@ -5318,7 +5318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
@@ -20992,10 +20992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21081,165 +21081,158 @@
         <v>804</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25">
+    <row r="10" spans="1:12" s="204" customFormat="1" ht="14.25">
       <c r="A10" s="187" t="s">
         <v>897</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-    </row>
-    <row r="11" spans="1:12" s="132" customFormat="1" ht="14.25">
+    </row>
+    <row r="11" spans="1:12" ht="14.25">
       <c r="A11" s="187" t="s">
+        <v>897</v>
+      </c>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+    </row>
+    <row r="12" spans="1:12" s="132" customFormat="1" ht="14.25">
+      <c r="A12" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="175" t="s">
+      <c r="B12" s="175" t="s">
         <v>872</v>
       </c>
-      <c r="C11" s="175"/>
-      <c r="D11" s="175"/>
-      <c r="H11" s="175" t="s">
+      <c r="C12" s="175"/>
+      <c r="D12" s="175"/>
+      <c r="H12" s="175" t="s">
         <v>873</v>
       </c>
-      <c r="J11" s="135"/>
-    </row>
-    <row r="12" spans="1:12" s="166" customFormat="1" ht="14.25">
-      <c r="A12" s="187" t="s">
+      <c r="J12" s="135"/>
+    </row>
+    <row r="13" spans="1:12" s="166" customFormat="1" ht="14.25">
+      <c r="A13" s="187" t="s">
         <v>899</v>
       </c>
-      <c r="B12" s="188" t="s">
+      <c r="B13" s="188" t="s">
         <v>898</v>
       </c>
-      <c r="J12" s="140"/>
-    </row>
-    <row r="13" spans="1:12" s="181" customFormat="1" ht="14.25">
-      <c r="A13" s="182" t="s">
+      <c r="J13" s="140"/>
+    </row>
+    <row r="14" spans="1:12" s="181" customFormat="1" ht="14.25">
+      <c r="A14" s="182" t="s">
         <v>878</v>
       </c>
-      <c r="B13" s="190" t="s">
+      <c r="B14" s="190" t="s">
         <v>900</v>
       </c>
-      <c r="C13" s="183" t="s">
+      <c r="C14" s="183" t="s">
         <v>874</v>
       </c>
-      <c r="D13" s="184" t="s">
+      <c r="D14" s="184" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="166" customFormat="1" ht="14.25">
-      <c r="A14" s="187" t="s">
+    <row r="15" spans="1:12" s="166" customFormat="1" ht="14.25">
+      <c r="A15" s="187" t="s">
         <v>905</v>
       </c>
-      <c r="B14" s="190" t="s">
+      <c r="B15" s="190" t="s">
         <v>894</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="184"/>
-    </row>
-    <row r="15" spans="1:12" s="181" customFormat="1" ht="14.25">
-      <c r="A15" s="182" t="s">
-        <v>878</v>
-      </c>
-      <c r="B15" s="190" t="s">
-        <v>901</v>
-      </c>
-      <c r="C15" s="183" t="s">
-        <v>876</v>
-      </c>
-      <c r="D15" s="184" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="136" customFormat="1" ht="14.25">
+      <c r="C15" s="191"/>
+      <c r="D15" s="184"/>
+    </row>
+    <row r="16" spans="1:12" s="181" customFormat="1" ht="14.25">
       <c r="A16" s="182" t="s">
         <v>878</v>
       </c>
       <c r="B16" s="190" t="s">
+        <v>901</v>
+      </c>
+      <c r="C16" s="183" t="s">
+        <v>876</v>
+      </c>
+      <c r="D16" s="184" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="136" customFormat="1" ht="14.25">
+      <c r="A17" s="182" t="s">
+        <v>878</v>
+      </c>
+      <c r="B17" s="190" t="s">
         <v>902</v>
       </c>
-      <c r="C16" s="191" t="s">
+      <c r="C17" s="191" t="s">
         <v>896</v>
       </c>
-      <c r="D16" s="184" t="s">
+      <c r="D17" s="184" t="s">
         <v>879</v>
       </c>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="181"/>
-    </row>
-    <row r="17" spans="1:10" s="166" customFormat="1" ht="14.25">
-      <c r="A17" s="187" t="s">
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="181"/>
+    </row>
+    <row r="18" spans="1:10" s="166" customFormat="1" ht="14.25">
+      <c r="A18" s="187" t="s">
         <v>878</v>
       </c>
-      <c r="B17" s="190" t="s">
+      <c r="B18" s="190" t="s">
         <v>903</v>
       </c>
-      <c r="C17" s="191" t="s">
+      <c r="C18" s="191" t="s">
         <v>882</v>
       </c>
-      <c r="D17" s="184" t="s">
+      <c r="D18" s="184" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="132" customFormat="1" ht="14.25">
-      <c r="A18" s="187" t="s">
+    <row r="19" spans="1:10" s="132" customFormat="1" ht="14.25">
+      <c r="A19" s="187" t="s">
         <v>885</v>
       </c>
-      <c r="B18" s="166" t="s">
+      <c r="B19" s="166" t="s">
         <v>886</v>
-      </c>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="175"/>
-    </row>
-    <row r="19" spans="1:10" s="136" customFormat="1" ht="14.25">
-      <c r="A19" s="187" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="175" t="s">
-        <v>883</v>
       </c>
       <c r="C19" s="175"/>
       <c r="D19" s="175"/>
       <c r="E19" s="175"/>
       <c r="F19" s="175"/>
       <c r="G19" s="175"/>
-      <c r="H19" s="181" t="s">
-        <v>884</v>
-      </c>
+      <c r="H19" s="175"/>
       <c r="I19" s="175"/>
       <c r="J19" s="175"/>
     </row>
     <row r="20" spans="1:10" s="136" customFormat="1" ht="14.25">
       <c r="A20" s="187" t="s">
-        <v>885</v>
-      </c>
-      <c r="B20" s="189" t="s">
-        <v>887</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="175" t="s">
+        <v>883</v>
       </c>
       <c r="C20" s="175"/>
       <c r="D20" s="175"/>
       <c r="E20" s="175"/>
       <c r="F20" s="175"/>
       <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
+      <c r="H20" s="181" t="s">
+        <v>884</v>
+      </c>
       <c r="I20" s="175"/>
       <c r="J20" s="175"/>
     </row>
-    <row r="21" spans="1:10" s="132" customFormat="1" ht="14.25">
-      <c r="A21" s="139"/>
-      <c r="B21" s="175"/>
+    <row r="21" spans="1:10" s="136" customFormat="1" ht="14.25">
+      <c r="A21" s="187" t="s">
+        <v>885</v>
+      </c>
+      <c r="B21" s="189" t="s">
+        <v>887</v>
+      </c>
       <c r="C21" s="175"/>
       <c r="D21" s="175"/>
       <c r="E21" s="175"/>
@@ -21249,8 +21242,8 @@
       <c r="I21" s="175"/>
       <c r="J21" s="175"/>
     </row>
-    <row r="22" spans="1:10" ht="14.25">
-      <c r="A22" s="134"/>
+    <row r="22" spans="1:10" s="132" customFormat="1" ht="14.25">
+      <c r="A22" s="139"/>
       <c r="B22" s="175"/>
       <c r="C22" s="175"/>
       <c r="D22" s="175"/>
@@ -21261,12 +21254,13 @@
       <c r="I22" s="175"/>
       <c r="J22" s="175"/>
     </row>
-    <row r="23" spans="1:10" s="136" customFormat="1" ht="14.25">
-      <c r="A23" s="139"/>
+    <row r="23" spans="1:10" ht="14.25">
+      <c r="A23" s="134"/>
       <c r="B23" s="175"/>
       <c r="C23" s="175"/>
       <c r="D23" s="175"/>
       <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
       <c r="G23" s="175"/>
       <c r="H23" s="175"/>
       <c r="I23" s="175"/>
@@ -21278,7 +21272,6 @@
       <c r="C24" s="175"/>
       <c r="D24" s="175"/>
       <c r="E24" s="175"/>
-      <c r="F24" s="175"/>
       <c r="G24" s="175"/>
       <c r="H24" s="175"/>
       <c r="I24" s="175"/>
@@ -21320,7 +21313,7 @@
       <c r="I27" s="175"/>
       <c r="J27" s="175"/>
     </row>
-    <row r="28" spans="1:10" ht="14.25">
+    <row r="28" spans="1:10" s="136" customFormat="1" ht="14.25">
       <c r="A28" s="139"/>
       <c r="B28" s="175"/>
       <c r="C28" s="175"/>
@@ -21332,7 +21325,7 @@
       <c r="I28" s="175"/>
       <c r="J28" s="175"/>
     </row>
-    <row r="29" spans="1:10" s="136" customFormat="1" ht="14.25">
+    <row r="29" spans="1:10" ht="14.25">
       <c r="A29" s="139"/>
       <c r="B29" s="175"/>
       <c r="C29" s="175"/>
@@ -21356,8 +21349,8 @@
       <c r="I30" s="175"/>
       <c r="J30" s="175"/>
     </row>
-    <row r="31" spans="1:10" s="145" customFormat="1" ht="14.25">
-      <c r="A31" s="153"/>
+    <row r="31" spans="1:10" s="136" customFormat="1" ht="14.25">
+      <c r="A31" s="139"/>
       <c r="B31" s="175"/>
       <c r="C31" s="175"/>
       <c r="D31" s="175"/>
@@ -21392,8 +21385,8 @@
       <c r="I33" s="175"/>
       <c r="J33" s="175"/>
     </row>
-    <row r="34" spans="1:10" s="136" customFormat="1" ht="14.25">
-      <c r="A34" s="139"/>
+    <row r="34" spans="1:10" s="145" customFormat="1" ht="14.25">
+      <c r="A34" s="153"/>
       <c r="B34" s="175"/>
       <c r="C34" s="175"/>
       <c r="D34" s="175"/>
@@ -21428,7 +21421,7 @@
       <c r="I36" s="175"/>
       <c r="J36" s="175"/>
     </row>
-    <row r="37" spans="1:10" ht="14.25">
+    <row r="37" spans="1:10" s="136" customFormat="1" ht="14.25">
       <c r="A37" s="139"/>
       <c r="B37" s="175"/>
       <c r="C37" s="175"/>
@@ -21439,6 +21432,18 @@
       <c r="H37" s="175"/>
       <c r="I37" s="175"/>
       <c r="J37" s="175"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.25">
+      <c r="A38" s="139"/>
+      <c r="B38" s="175"/>
+      <c r="C38" s="175"/>
+      <c r="D38" s="175"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="175"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
